--- a/MidTerm/output_csv/output_TTGiang_update.xlsx
+++ b/MidTerm/output_csv/output_TTGiang_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HELP ME\MidTerm\output_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A0FC8-9D5B-4076-8944-133FA7E184C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7D15E9-DFB7-4FE9-8FE4-9A33DE1147A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18578,7 +18578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -18591,13 +18591,26 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -18627,11 +18640,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18936,16 +18950,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="C257" sqref="C257"/>
+    <sheetView tabSelected="1" topLeftCell="A1747" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="66.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -22542,6 +22556,7 @@
       <c r="C257" t="s">
         <v>803</v>
       </c>
+      <c r="D257" s="2"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
@@ -22553,6 +22568,7 @@
       <c r="C258" t="s">
         <v>805</v>
       </c>
+      <c r="D258" s="2"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
@@ -22564,6 +22580,7 @@
       <c r="C259" t="s">
         <v>807</v>
       </c>
+      <c r="D259" s="2"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
@@ -22575,6 +22592,7 @@
       <c r="C260" t="s">
         <v>809</v>
       </c>
+      <c r="D260" s="2"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -22586,6 +22604,7 @@
       <c r="C261" t="s">
         <v>811</v>
       </c>
+      <c r="D261" s="2"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
@@ -22625,6 +22644,7 @@
       <c r="C264" t="s">
         <v>819</v>
       </c>
+      <c r="D264" s="2"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
@@ -22636,6 +22656,7 @@
       <c r="C265" t="s">
         <v>821</v>
       </c>
+      <c r="D265" s="2"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
@@ -22745,6 +22766,7 @@
       <c r="C273" t="s">
         <v>844</v>
       </c>
+      <c r="D273" s="2"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
@@ -22756,6 +22778,7 @@
       <c r="C274" t="s">
         <v>846</v>
       </c>
+      <c r="D274" s="2"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
@@ -23467,6 +23490,7 @@
       <c r="C325" t="s">
         <v>1001</v>
       </c>
+      <c r="D325" s="2"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
@@ -23478,6 +23502,7 @@
       <c r="C326" t="s">
         <v>1004</v>
       </c>
+      <c r="D326" s="2"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
@@ -24245,6 +24270,7 @@
       <c r="C381" t="s">
         <v>1176</v>
       </c>
+      <c r="D381" s="2"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
@@ -24256,6 +24282,7 @@
       <c r="C382" t="s">
         <v>1178</v>
       </c>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
